--- a/实习投递.xlsx
+++ b/实习投递.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab\workprepare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAE4FFF-C425-42EF-9515-E0FC95168267}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61FA477-E497-4E3C-A019-676DAADDCE3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>公司名称</t>
   </si>
@@ -57,14 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网易互娱（服务端开发-移动客户端）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>360安全开发实习生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>牛客</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,6 +66,42 @@
   </si>
   <si>
     <t>招银网络科技后端开发实习生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东成都java暑期开发实习生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程上海java暑期实习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知乎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思特沃克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360成都安全开发实习生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易互娱广州（服务端开发-移动客户端）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +125,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -409,36 +437,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="57" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="57" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="26" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -446,56 +477,101 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>6</v>
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3.16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="B5" s="1">
+        <v>3.17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.17</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B6">
-        <v>3.16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>3.16</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>3.16</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G10">
+    <sortCondition ref="B2:B10"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/实习投递.xlsx
+++ b/实习投递.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab\workprepare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61FA477-E497-4E3C-A019-676DAADDCE3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21022EA-DD07-4075-9F46-516E35683B6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>公司名称</t>
   </si>
@@ -102,6 +102,14 @@
   </si>
   <si>
     <t>网易互娱广州（服务端开发-移动客户端）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝壳找房成都（Java+Android研发工程师）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.15"/>
@@ -530,47 +538,58 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G10">
-    <sortCondition ref="B2:B10"/>
+  <sortState ref="A2:G15">
+    <sortCondition ref="B2:B15"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/实习投递.xlsx
+++ b/实习投递.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab\workprepare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21022EA-DD07-4075-9F46-516E35683B6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E997F6-B8E6-46BE-847D-24B92BF22AAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="31">
   <si>
     <t>公司名称</t>
   </si>
@@ -43,12 +43,6 @@
     <t>成都蚂蚁</t>
   </si>
   <si>
-    <t>字节</t>
-  </si>
-  <si>
-    <t>美团</t>
-  </si>
-  <si>
     <t>内推方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,6 +104,38 @@
   </si>
   <si>
     <t>牛客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团成都移动端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.19行测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.21技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联发科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TpLink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节成都Android+后端</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,12 +167,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,11 +195,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,17 +480,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="57" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.5" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
     <col min="7" max="7" width="26" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
@@ -481,12 +516,12 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>3.16</v>
@@ -494,102 +529,132 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>3.16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2">
         <v>3.16</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>3.17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>3.17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2">
         <v>3.17</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G15">
-    <sortCondition ref="B2:B15"/>
+  <sortState ref="A3:G18">
+    <sortCondition ref="B3:B18"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/实习投递.xlsx
+++ b/实习投递.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab\workprepare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E997F6-B8E6-46BE-847D-24B92BF22AAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A95BA54-F610-44D5-A788-3519C9407C75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>公司名称</t>
   </si>
@@ -91,14 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>360成都安全开发实习生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网易互娱广州（服务端开发-移动客户端）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>贝壳找房成都（Java+Android研发工程师）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +128,18 @@
   </si>
   <si>
     <t>字节成都Android+后端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易互娱广州（服务端开发-移动客户端）-等待笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360成都安全开发实习生-等待筛选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,23 +484,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="57" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.5" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="26" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="78.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="26" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,10 +520,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -527,133 +534,133 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>3.16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2">
         <v>3.16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>3.17</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>3.17</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>3.17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>3.19</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1">
         <v>3.19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:G18">
+  <sortState ref="A3:H18">
     <sortCondition ref="B3:B18"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/实习投递.xlsx
+++ b/实习投递.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab\workprepare\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A95BA54-F610-44D5-A788-3519C9407C75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>公司名称</t>
   </si>
@@ -40,125 +34,87 @@
     <t>三面</t>
   </si>
   <si>
+    <t>HR面</t>
+  </si>
+  <si>
+    <t>内推方式</t>
+  </si>
+  <si>
+    <t>招银网络科技后端开发实习生</t>
+  </si>
+  <si>
+    <t>网易互娱广州（服务端开发-移动客户端）-等待笔试</t>
+  </si>
+  <si>
+    <t>牛客</t>
+  </si>
+  <si>
+    <t>360成都安全开发实习生-等待筛选</t>
+  </si>
+  <si>
+    <t>3.19行测</t>
+  </si>
+  <si>
+    <t>京东成都java暑期开发实习生</t>
+  </si>
+  <si>
+    <t>携程上海java暑期实习</t>
+  </si>
+  <si>
+    <t>贝壳找房成都（Java+Android研发工程师）</t>
+  </si>
+  <si>
+    <t>3.21技术</t>
+  </si>
+  <si>
+    <t>美团成都移动端开发</t>
+  </si>
+  <si>
+    <t>年级群</t>
+  </si>
+  <si>
+    <t>字节成都Android+后端</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+  </si>
+  <si>
+    <t>联想</t>
+  </si>
+  <si>
     <t>成都蚂蚁</t>
   </si>
   <si>
-    <t>内推方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPPO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招银网络科技后端开发实习生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东成都java暑期开发实习生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>携程上海java暑期实习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>腾讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知乎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>思特沃克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝壳找房成都（Java+Android研发工程师）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美团成都移动端开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年级群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.19行测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.21技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>华为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>联发科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TpLink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节成都Android+后端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HR面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网易互娱广州（服务端开发-移动客户端）-等待笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>360成都安全开发实习生-等待筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -166,12 +122,155 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,12 +279,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -193,34 +484,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -478,29 +1058,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="78.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3796296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
     <col min="8" max="8" width="26" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,151 +1100,152 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>3.16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>3.16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>3.16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>3.17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>3.17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>3.17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>3.19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>3.19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:H18">
-    <sortCondition ref="B3:B18"/>
+  <sortState ref="A2:H17">
+    <sortCondition ref="B2:B17"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/实习投递.xlsx
+++ b/实习投递.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab\workprepare\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A156967E-865F-45B2-B67F-5373736677B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>公司名称</t>
   </si>
@@ -76,15 +70,30 @@
     <t>美团成都移动端开发</t>
   </si>
   <si>
+    <t>3.26 16:00</t>
+  </si>
+  <si>
     <t>年级群</t>
   </si>
   <si>
+    <t>字节成都Android+后端-等待笔试</t>
+  </si>
+  <si>
+    <t>3.27 19:00</t>
+  </si>
+  <si>
     <t>OPPO</t>
   </si>
   <si>
     <t>联想</t>
   </si>
   <si>
+    <t>腾讯音乐-软件后台开发</t>
+  </si>
+  <si>
+    <t>百度北京Java开发</t>
+  </si>
+  <si>
     <t>成都蚂蚁</t>
   </si>
   <si>
@@ -101,21 +110,19 @@
   </si>
   <si>
     <t>TpLink</t>
-  </si>
-  <si>
-    <t>字节成都Android+后端-等待笔试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.26 16:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,21 +138,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,7 +298,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,12 +310,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -179,13 +521,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -201,24 +785,83 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -476,19 +1119,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="78.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
@@ -498,7 +1141,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +1167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -532,8 +1175,8 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
@@ -543,7 +1186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -557,7 +1200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -568,7 +1211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -579,94 +1222,120 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>3.17</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>3.19</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8">
         <v>3.19</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>3.21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
         <v>3.22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="B12" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="B13" s="1">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="H19"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:H17">
-    <sortCondition ref="B2:B17"/>
+  <sortState ref="A2:H19">
+    <sortCondition ref="B2:B19"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/实习投递.xlsx
+++ b/实习投递.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>公司名称</t>
   </si>
@@ -82,16 +82,28 @@
     <t>3.27 19:00</t>
   </si>
   <si>
-    <t>OPPO</t>
-  </si>
-  <si>
-    <t>联想</t>
+    <t>OPPO成都Android+java</t>
+  </si>
+  <si>
+    <t>联想成都-java</t>
   </si>
   <si>
     <t>腾讯音乐-软件后台开发</t>
   </si>
   <si>
     <t>百度北京Java开发</t>
+  </si>
+  <si>
+    <t>3.29 19:00</t>
+  </si>
+  <si>
+    <t>鹰角网络上海移动端</t>
+  </si>
+  <si>
+    <t>网易云音乐杭州Android</t>
+  </si>
+  <si>
+    <t>网易雷火杭州移动+后端</t>
   </si>
   <si>
     <t>成都蚂蚁</t>
@@ -117,12 +129,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,24 +150,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,31 +210,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,52 +243,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +257,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -273,23 +287,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,49 +321,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,49 +459,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,91 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,36 +531,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,8 +563,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,21 +612,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -627,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,137 +632,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,13 +781,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -1125,10 +1112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="7"/>
@@ -1229,7 +1216,7 @@
       <c r="B7" s="4">
         <v>3.17</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1243,7 +1230,7 @@
       <c r="B8" s="2">
         <v>3.19</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -1251,10 +1238,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>3.19</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1278,7 +1265,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="1">
@@ -1288,51 +1275,84 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="1">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="9" t="s">
+      <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="9" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="9" t="s">
+      <c r="B14" s="1">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="B15" s="1">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.27</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="9" t="s">
-        <v>29</v>
+      <c r="A17" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="A18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="H19"/>
+      <c r="A19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="H22"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H19">
-    <sortCondition ref="B2:B19"/>
+  <sortState ref="A2:H22">
+    <sortCondition ref="B2:B22"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/实习投递.xlsx
+++ b/实习投递.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>公司名称</t>
   </si>
@@ -73,6 +73,9 @@
     <t>3.26 16:00</t>
   </si>
   <si>
+    <t>3.29 20:00</t>
+  </si>
+  <si>
     <t>年级群</t>
   </si>
   <si>
@@ -82,7 +85,7 @@
     <t>3.27 19:00</t>
   </si>
   <si>
-    <t>OPPO成都Android+java</t>
+    <t>OPPO成都Android+java-在线性格测评31号前</t>
   </si>
   <si>
     <t>联想成都-java</t>
@@ -129,10 +132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -157,48 +160,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,85 +242,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,37 +330,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,139 +492,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,75 +518,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -607,8 +545,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,149 +623,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,10 +787,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="7"/>
@@ -1123,7 +1123,8 @@
     <col min="1" max="1" width="78.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="1"/>
+    <col min="4" max="4" width="39" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="1"/>
     <col min="8" max="8" width="26" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -1230,35 +1231,38 @@
       <c r="B8" s="2">
         <v>3.19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5">
         <v>3.19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5">
         <v>3.21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>3.22</v>
@@ -1266,7 +1270,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
         <v>3.25</v>
@@ -1276,19 +1280,19 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="A13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5">
         <v>3.25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1">
         <v>3.26</v>
@@ -1296,58 +1300,58 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1">
         <v>3.27</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
-        <v>29</v>
+      <c r="A16" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B16" s="1">
         <v>3.27</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
-        <v>30</v>
+      <c r="A17" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="7" t="s">
-        <v>31</v>
+      <c r="A18" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B18" s="8"/>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="A19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="A20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="A21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="9"/>
+      <c r="A22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="8"/>
       <c r="H22"/>
     </row>
   </sheetData>

--- a/实习投递.xlsx
+++ b/实习投递.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>公司名称</t>
   </si>
@@ -49,7 +49,7 @@
     <t>牛客</t>
   </si>
   <si>
-    <t>360成都安全开发实习生-等待筛选</t>
+    <t>360成都安全开发实习生-申请成功</t>
   </si>
   <si>
     <t>3.19行测</t>
@@ -76,16 +76,19 @@
     <t>3.29 20:00</t>
   </si>
   <si>
+    <t>3.31 19:00</t>
+  </si>
+  <si>
     <t>年级群</t>
   </si>
   <si>
-    <t>字节成都Android+后端-等待笔试</t>
+    <t>字节成都Android+后端</t>
   </si>
   <si>
     <t>3.27 19:00</t>
   </si>
   <si>
-    <t>OPPO成都Android+java-在线性格测评31号前</t>
+    <t>OPPO成都Android+java-在线性格测评已做</t>
   </si>
   <si>
     <t>联想成都-java</t>
@@ -97,7 +100,7 @@
     <t>百度北京Java开发</t>
   </si>
   <si>
-    <t>3.29 19:00</t>
+    <t>3.29 19:00(延后)</t>
   </si>
   <si>
     <t>鹰角网络上海移动端</t>
@@ -132,8 +135,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -154,21 +157,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,6 +199,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -218,86 +253,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,55 +333,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,90 +507,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -481,30 +514,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,6 +553,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -566,11 +595,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,32 +624,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -623,149 +632,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +791,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -1115,16 +1127,17 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="78.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="1"/>
+    <col min="5" max="5" width="22.625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
     <col min="8" max="8" width="26" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -1234,27 +1247,30 @@
       <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5">
         <v>3.19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5">
         <v>3.21</v>
@@ -1262,15 +1278,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>3.22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
-        <v>25</v>
+      <c r="A12" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>3.25</v>
@@ -1280,78 +1296,78 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7" t="s">
-        <v>26</v>
+      <c r="A13" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="B13" s="5">
         <v>3.25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6" t="s">
-        <v>28</v>
+      <c r="A14" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B14" s="1">
         <v>3.26</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
-        <v>29</v>
+      <c r="A15" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B15" s="1">
         <v>3.27</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="6" t="s">
-        <v>30</v>
+      <c r="A16" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>3.27</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
-        <v>31</v>
+      <c r="A17" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="A18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="A19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="A20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="A21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="8"/>
+      <c r="A22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="9"/>
       <c r="H22"/>
     </row>
   </sheetData>

--- a/实习投递.xlsx
+++ b/实习投递.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17865"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,8 +137,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -157,6 +157,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -164,16 +185,57 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,14 +248,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +256,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -209,30 +280,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,62 +293,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,7 +333,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,175 +423,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,15 +518,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,35 +532,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,17 +551,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +583,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -632,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,137 +638,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,9 +785,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -1126,17 +1117,17 @@
   <sheetPr/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="78.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6296296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6296296296296" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
     <col min="8" max="8" width="26" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -1247,7 +1238,7 @@
       <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1277,15 +1268,15 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <v>3.22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="1">
@@ -1296,7 +1287,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="5">
@@ -1307,7 +1298,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="1">
@@ -1315,7 +1306,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="1">
@@ -1323,7 +1314,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="1">
@@ -1331,43 +1322,43 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
       <c r="H22"/>
     </row>
   </sheetData>

--- a/实习投递.xlsx
+++ b/实习投递.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowHeight="17865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>公司名称</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>OPPO成都Android+java-在线性格测评已做</t>
+  </si>
+  <si>
+    <t>4.2 15:50</t>
   </si>
   <si>
     <t>联想成都-java</t>
@@ -135,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -156,6 +159,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -164,6 +168,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -171,7 +189,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,42 +226,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,37 +282,13 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -270,29 +296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -300,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +336,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -345,7 +360,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,157 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,6 +527,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,6 +552,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,42 +599,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,19 +647,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,116 +668,116 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -785,6 +794,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -1115,19 +1127,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="78.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3796296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6333333333333" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
     <col min="8" max="8" width="26" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -1259,25 +1271,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="5">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="6"/>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5">
         <v>3.22</v>
       </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="1">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
-        <v>26</v>
+      <c r="A12" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>3.25</v>
@@ -1287,80 +1307,81 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7" t="s">
-        <v>27</v>
+      <c r="A13" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B13" s="5">
         <v>3.25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
+      <c r="A14" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>3.26</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
-        <v>30</v>
+      <c r="A15" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>3.27</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="6" t="s">
-        <v>31</v>
+      <c r="A16" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>3.27</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
-        <v>32</v>
+      <c r="A17" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="A19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="A20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="A21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="8"/>
+      <c r="A22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="9"/>
       <c r="H22"/>
     </row>
+    <row r="29" ht="4" customHeight="1"/>
   </sheetData>
   <sortState ref="A2:H22">
     <sortCondition ref="B2:B22"/>

--- a/实习投递.xlsx
+++ b/实习投递.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>公司名称</t>
   </si>
@@ -58,6 +58,9 @@
     <t>京东成都java暑期开发实习生</t>
   </si>
   <si>
+    <t>4.2 19:00</t>
+  </si>
+  <si>
     <t>携程上海java暑期实习</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t>4.2 15:50</t>
   </si>
   <si>
+    <t>HR4.6 11:00</t>
+  </si>
+  <si>
     <t>联想成都-java</t>
   </si>
   <si>
@@ -115,16 +121,19 @@
     <t>网易雷火杭州移动+后端</t>
   </si>
   <si>
+    <t>华为</t>
+  </si>
+  <si>
     <t>成都蚂蚁</t>
   </si>
   <si>
+    <t>4.12 19:00</t>
+  </si>
+  <si>
     <t>腾讯</t>
   </si>
   <si>
     <t>思特沃克</t>
-  </si>
-  <si>
-    <t>华为</t>
   </si>
   <si>
     <t>联发科</t>
@@ -139,9 +148,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -159,68 +168,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,40 +251,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,29 +304,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,7 +345,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,13 +471,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,157 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +530,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -557,30 +608,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -603,30 +630,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -635,10 +638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,137 +650,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,13 +799,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1130,7 +1139,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="7"/>
@@ -1211,13 +1220,16 @@
       <c r="B5" s="1">
         <v>3.17</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3">
         <v>3.17</v>
@@ -1228,13 +1240,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4">
         <v>3.17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
@@ -1242,62 +1254,65 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>3.19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5">
         <v>3.19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5">
         <v>3.21</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5">
         <v>3.22</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="1">
+      <c r="C11" s="5"/>
+      <c r="D11" s="6">
         <v>4.7</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1">
         <v>3.25</v>
@@ -1308,18 +1323,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5">
         <v>3.25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1">
         <v>3.26</v>
@@ -1327,7 +1342,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
         <v>3.27</v>
@@ -1335,56 +1350,69 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1">
         <v>3.27</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
-        <v>33</v>
-      </c>
+    <row r="17" spans="1:8">
+      <c r="A17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3.31</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="H17"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="A18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="C18" s="6">
+        <v>4.15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="A19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="A20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="H21" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="B22" s="10"/>
       <c r="H22"/>
     </row>
     <row r="29" ht="4" customHeight="1"/>
   </sheetData>
-  <sortState ref="A2:H22">
-    <sortCondition ref="B2:B22"/>
+  <sortState ref="A2:H20">
+    <sortCondition ref="B2:B20"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/实习投递.xlsx
+++ b/实习投递.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>公司名称</t>
   </si>
@@ -124,6 +124,9 @@
     <t>华为</t>
   </si>
   <si>
+    <t>深信服测开长沙</t>
+  </si>
+  <si>
     <t>成都蚂蚁</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
   </si>
   <si>
     <t>TpLink</t>
+  </si>
+  <si>
+    <t>腾讯云智后端重庆</t>
   </si>
 </sst>
 </file>
@@ -147,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -169,12 +175,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -182,31 +196,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,17 +233,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,67 +317,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -345,181 +351,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,30 +536,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -581,6 +563,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -593,16 +590,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,15 +636,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -638,145 +644,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -808,10 +814,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1139,7 +1145,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="7"/>
@@ -1357,62 +1363,81 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="7">
         <v>3.31</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="9"/>
       <c r="H17"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="10">
+        <v>4.11</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="10">
         <v>4.8</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C19" s="6">
         <v>4.15</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="9" t="s">
+      <c r="D19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="11"/>
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="11"/>
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="H22"/>
+      <c r="B22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.11</v>
+      </c>
     </row>
     <row r="29" ht="4" customHeight="1"/>
   </sheetData>
-  <sortState ref="A2:H20">
-    <sortCondition ref="B2:B20"/>
+  <sortState ref="A2:H19">
+    <sortCondition ref="B2:B19"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/实习投递.xlsx
+++ b/实习投递.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17865"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>公司名称</t>
   </si>
@@ -37,7 +37,7 @@
     <t>HR面</t>
   </si>
   <si>
-    <t>内推方式</t>
+    <t>是否offer</t>
   </si>
   <si>
     <t>招银网络科技后端开发实习生</t>
@@ -46,9 +46,6 @@
     <t>网易互娱广州（服务端开发-移动客户端）-等待笔试</t>
   </si>
   <si>
-    <t>牛客</t>
-  </si>
-  <si>
     <t>360成都安全开发实习生-申请成功</t>
   </si>
   <si>
@@ -82,7 +79,7 @@
     <t>3.31 19:00</t>
   </si>
   <si>
-    <t>年级群</t>
+    <t>4.12（已）</t>
   </si>
   <si>
     <t>字节成都Android+后端</t>
@@ -91,6 +88,9 @@
     <t>3.27 19:00</t>
   </si>
   <si>
+    <t>4.18 15:30</t>
+  </si>
+  <si>
     <t>OPPO成都Android+java-在线性格测评已做</t>
   </si>
   <si>
@@ -118,22 +118,37 @@
     <t>网易云音乐杭州Android</t>
   </si>
   <si>
+    <t>4.16 15:00</t>
+  </si>
+  <si>
     <t>网易雷火杭州移动+后端</t>
   </si>
   <si>
     <t>华为</t>
   </si>
   <si>
-    <t>深信服测开长沙</t>
+    <t>深信服测开长沙（不满足日常实习）</t>
+  </si>
+  <si>
+    <t>腾讯云智后端重庆</t>
+  </si>
+  <si>
+    <t>广联达Java西安</t>
+  </si>
+  <si>
+    <t>4.13 晚上</t>
   </si>
   <si>
     <t>成都蚂蚁</t>
   </si>
   <si>
+    <t>4.15 19:00</t>
+  </si>
+  <si>
     <t>4.12 19:00</t>
   </si>
   <si>
-    <t>腾讯</t>
+    <t>腾讯天美移动端成都</t>
   </si>
   <si>
     <t>思特沃克</t>
@@ -143,9 +158,6 @@
   </si>
   <si>
     <t>TpLink</t>
-  </si>
-  <si>
-    <t>腾讯云智后端重庆</t>
   </si>
 </sst>
 </file>
@@ -153,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -183,12 +195,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -196,25 +223,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,98 +294,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,55 +363,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,121 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,30 +560,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -578,13 +578,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,7 +612,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,17 +650,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,10 +668,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,133 +680,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -805,6 +829,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -817,10 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,19 +1168,20 @@
   <sheetPr/>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="78.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3833333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6296296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6333333333333" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="26" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6296296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="33.1666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.9351851851852" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1194,98 +1219,88 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>3.16</v>
       </c>
-      <c r="H3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>3.16</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>3.17</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="B6" s="3">
         <v>3.17</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4">
         <v>3.17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>3.19</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="B9" s="5">
         <v>3.19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1297,7 +1312,7 @@
         <v>3.21</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1312,23 +1327,23 @@
         <v>3.22</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>4.7</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="1">
         <v>3.25</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>10</v>
+      <c r="C12" s="1">
+        <v>4.27</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="5">
@@ -1339,105 +1354,114 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="1">
         <v>3.26</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="5">
         <v>3.27</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
-        <v>34</v>
+      <c r="A16" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>3.27</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="7">
+    <row r="17" spans="1:3">
+      <c r="A17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="8">
         <v>3.31</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="10">
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="11">
         <v>4.11</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="10">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5">
+        <v>4.12</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="8">
         <v>4.8</v>
       </c>
-      <c r="C19" s="6">
-        <v>4.15</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="H23"/>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="1">
-        <v>4.11</v>
-      </c>
+      <c r="A24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="10"/>
     </row>
     <row r="29" ht="4" customHeight="1"/>
   </sheetData>
-  <sortState ref="A2:H19">
-    <sortCondition ref="B2:B19"/>
+  <sortState ref="A2:G25">
+    <sortCondition ref="B2:B25"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
